--- a/sea ice thickness dataset/variables name.xlsx
+++ b/sea ice thickness dataset/variables name.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12603\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12603\Desktop\sea ice\EAEE4000_MLProject\sea ice thickness dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D21C6E-4E6C-467C-8EEC-E7892C847CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762BFE32-33AA-4940-BD8C-03CAD84AA5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="6825" windowWidth="22800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="5565" windowWidth="22800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>sithick</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>northward sea water velocity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">area selection one </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,11 +505,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
